--- a/ig/corecl/1.7.0/ValueSet-VSCodigoslenguaje.xlsx
+++ b/ig/corecl/1.7.0/ValueSet-VSCodigoslenguaje.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/ValueSet/VSCodigoslenguaje</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/ValueSet/VSCodigoslenguaje</t>
   </si>
   <si>
     <t>Version</t>
@@ -114,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/CodeSystem/CSCodigoslenguaje</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/CodeSystem/CSCodigoslenguaje</t>
   </si>
 </sst>
 </file>
